--- a/Subjective_data/prequestionnaire.xlsx
+++ b/Subjective_data/prequestionnaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -100,6 +100,33 @@
   </si>
   <si>
     <t>Biology</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Mobile; Game Console</t>
+  </si>
+  <si>
+    <t>Joystick</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>IMGD/CS</t>
+  </si>
+  <si>
+    <t>Desktop: Game Console</t>
+  </si>
+  <si>
+    <t>Mechanical Eng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyboard/Mouse; Joystick; </t>
   </si>
 </sst>
 </file>
@@ -444,7 +471,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,24 +734,144 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">

--- a/Subjective_data/prequestionnaire.xlsx
+++ b/Subjective_data/prequestionnaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -120,13 +120,22 @@
     <t>IMGD/CS</t>
   </si>
   <si>
-    <t>Desktop: Game Console</t>
-  </si>
-  <si>
     <t>Mechanical Eng.</t>
   </si>
   <si>
     <t xml:space="preserve">Keyboard/Mouse; Joystick; </t>
+  </si>
+  <si>
+    <t>Biomedical Eng.</t>
+  </si>
+  <si>
+    <t>Desktop; Game Console</t>
+  </si>
+  <si>
+    <t>Game Console</t>
+  </si>
+  <si>
+    <t>Joysick; Wiimote</t>
   </si>
 </sst>
 </file>
@@ -471,7 +480,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>10</v>
@@ -850,7 +859,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
@@ -859,7 +868,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="1">
         <v>4</v>
@@ -874,14 +883,74 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">

--- a/Subjective_data/prequestionnaire.xlsx
+++ b/Subjective_data/prequestionnaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -135,7 +135,28 @@
     <t>Game Console</t>
   </si>
   <si>
-    <t>Joysick; Wiimote</t>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>DeskTop; Tablet; Mobile;</t>
+  </si>
+  <si>
+    <t>Biochemistry</t>
+  </si>
+  <si>
+    <t>HE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joystick; </t>
+  </si>
+  <si>
+    <t>Joystick; Wiimote</t>
+  </si>
+  <si>
+    <t>BME</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -477,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +519,7 @@
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,8 +553,11 @@
       <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -567,8 +591,11 @@
       <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -602,8 +629,11 @@
       <c r="K3" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -637,8 +667,11 @@
       <c r="K4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -672,8 +705,11 @@
       <c r="K5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -707,8 +743,11 @@
       <c r="K6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -742,8 +781,11 @@
       <c r="K7" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -777,8 +819,11 @@
       <c r="K8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -813,7 +858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -847,8 +892,11 @@
       <c r="K10" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -882,8 +930,11 @@
       <c r="K11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,7 +954,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H12" s="1">
         <v>2</v>
@@ -917,8 +968,11 @@
       <c r="K12" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -952,100 +1006,460 @@
       <c r="K13" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="1">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Subjective_data/prequestionnaire.xlsx
+++ b/Subjective_data/prequestionnaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Aerospace</t>
+  </si>
+  <si>
+    <t>Chem Eng.</t>
   </si>
 </sst>
 </file>
@@ -501,7 +510,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,17 +1365,65 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1">
+        <v>24</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4</v>
+      </c>
       <c r="K23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>4</v>
+      </c>
       <c r="K24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1378,6 +1435,33 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4</v>
+      </c>
       <c r="K25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1385,9 +1469,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3</v>
+      </c>
+      <c r="J26" s="1">
+        <v>4</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>15</v>
@@ -1400,16 +1511,64 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>3</v>
+      </c>
       <c r="K27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>15</v>

--- a/Subjective_data/prequestionnaire.xlsx
+++ b/Subjective_data/prequestionnaire.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -507,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,10 +1577,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="1">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2</v>
+      </c>
       <c r="K29" s="1" t="s">
         <v>19</v>
       </c>
@@ -1588,23 +1609,77 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="1">
+        <v>4</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>4</v>
+      </c>
       <c r="K30" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="1">
+        <v>19</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>2</v>
+      </c>
       <c r="K31" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L31" s="1">
         <v>1</v>
@@ -1615,9 +1690,20 @@
         <v>30</v>
       </c>
       <c r="K32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L33" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Subjective_data/prequestionnaire.xlsx
+++ b/Subjective_data/prequestionnaire.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -510,7 +510,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,6 +1689,24 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="1">
+        <v>19</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>5</v>
+      </c>
       <c r="K32" s="1" t="s">
         <v>19</v>
       </c>
@@ -1700,11 +1718,38 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>19</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>5</v>
+      </c>
       <c r="K33" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
